--- a/data/StaffConfig.xlsx
+++ b/data/StaffConfig.xlsx
@@ -74,9 +74,6 @@
     <t>Ленточная пила (MER Shark 281 CCS)</t>
   </si>
   <si>
-    <t>Сварка вольфрамом/полуавтоматом в среде защитного газа</t>
-  </si>
-  <si>
     <t>Сварочный пост</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
   </si>
   <si>
     <t>Вальцовочнуя</t>
+  </si>
+  <si>
+    <t>Сварка полуавтоматом в среде защитного газа (MIG)</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -523,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -531,16 +531,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -557,7 +557,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -574,7 +574,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -588,10 +588,10 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -599,16 +599,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -616,16 +616,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -633,16 +633,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -650,16 +650,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -667,16 +667,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -684,16 +684,16 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -718,13 +718,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
         <v>18</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>

--- a/data/StaffConfig.xlsx
+++ b/data/StaffConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Станок</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Сварка полуавтоматом в среде защитного газа (MIG)</t>
+  </si>
+  <si>
+    <t>Листогибочная1</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>

--- a/data/StaffConfig.xlsx
+++ b/data/StaffConfig.xlsx
@@ -466,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
     <col min="5" max="5" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +497,9 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -515,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -529,10 +530,10 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -546,15 +547,15 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
@@ -563,15 +564,15 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -583,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -600,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -614,10 +615,10 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -634,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -651,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -668,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -682,10 +683,10 @@
         <v>29</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -702,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -719,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
